--- a/regionseng/12/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/12/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,15 +88,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -271,7 +272,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -326,6 +327,12 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -660,14 +667,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="4"/>
@@ -698,7 +705,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:19" ht="12" customHeight="1">
+    <row r="5" spans="1:19">
       <c r="A5" s="15">
         <v>2009</v>
       </c>
@@ -722,7 +729,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="12" customHeight="1">
+    <row r="6" spans="1:19">
       <c r="A6" s="15">
         <v>2010</v>
       </c>
@@ -742,7 +749,7 @@
         <v>9650.4038922000036</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="12" customHeight="1">
+    <row r="7" spans="1:19">
       <c r="A7" s="15">
         <v>2011</v>
       </c>
@@ -762,7 +769,7 @@
         <v>14186.981836600002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12" customHeight="1">
+    <row r="8" spans="1:19">
       <c r="A8" s="15">
         <v>2012</v>
       </c>
@@ -782,7 +789,7 @@
         <v>12490.286654000007</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="12" customHeight="1">
+    <row r="9" spans="1:19">
       <c r="A9" s="15">
         <v>2013</v>
       </c>
@@ -802,7 +809,7 @@
         <v>-115.41210000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1">
+    <row r="10" spans="1:19">
       <c r="A10" s="15">
         <v>2014</v>
       </c>
@@ -822,7 +829,7 @@
         <v>57576.170300000013</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12" customHeight="1">
+    <row r="11" spans="1:19">
       <c r="A11" s="15">
         <v>2015</v>
       </c>
@@ -842,104 +849,104 @@
         <v>-8455.676999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1">
+    <row r="12" spans="1:19">
       <c r="A12" s="15">
         <v>2016</v>
       </c>
       <c r="B12" s="23">
-        <v>-2921.469000000001</v>
+        <v>-2921.4691000000003</v>
       </c>
       <c r="C12" s="23">
-        <v>2655.0040000000004</v>
+        <v>2655.0039999999999</v>
       </c>
       <c r="D12" s="23">
-        <v>2027.7393000000002</v>
+        <v>2027.7393</v>
       </c>
       <c r="E12" s="23">
-        <v>2780.8022999999994</v>
+        <v>2780.8024</v>
       </c>
       <c r="F12" s="24">
-        <v>4542.0765999999985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="12" customHeight="1">
+        <v>4542.0765999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="15">
         <v>2017</v>
       </c>
       <c r="B13" s="16">
-        <v>1611.7670999999993</v>
+        <v>1611.7671000000005</v>
       </c>
       <c r="C13" s="16">
-        <v>2221.8572999999992</v>
+        <v>2221.8573999999999</v>
       </c>
       <c r="D13" s="16">
-        <v>2186.2984999999994</v>
+        <v>2186.2983999999997</v>
       </c>
       <c r="E13" s="16">
-        <v>-4921.8894000000091</v>
+        <v>-4921.8894000000028</v>
       </c>
       <c r="F13" s="17">
-        <v>1098.0334999999886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="12" customHeight="1">
+        <v>1098.0334999999968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="15">
         <v>2018</v>
       </c>
       <c r="B14" s="16">
-        <v>-2949.7742000000003</v>
+        <v>-2949.7740000000013</v>
       </c>
       <c r="C14" s="16">
         <v>5003.569300000001</v>
       </c>
       <c r="D14" s="16">
-        <v>9574.1992000000009</v>
+        <v>9574.1990000000005</v>
       </c>
       <c r="E14" s="16">
-        <v>3611.9636999999993</v>
+        <v>3611.9636999999989</v>
       </c>
       <c r="F14" s="17">
-        <v>15239.958000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="12" customHeight="1">
+        <v>15239.957999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="15">
         <v>2019</v>
       </c>
       <c r="B15" s="16">
-        <v>5581.1573999999973</v>
+        <v>5581.2</v>
       </c>
       <c r="C15" s="16">
-        <v>7020.3371000000006</v>
+        <v>7020.3</v>
       </c>
       <c r="D15" s="16">
-        <v>5342.8001000000004</v>
+        <v>5342.8</v>
       </c>
       <c r="E15" s="16">
-        <v>-16701.283000000003</v>
+        <v>-16701.3</v>
       </c>
       <c r="F15" s="17">
-        <v>1243.0115999999944</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="12" customHeight="1">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="15">
         <v>2020</v>
       </c>
       <c r="B16" s="16">
-        <v>463.48360000000008</v>
+        <v>463.5</v>
       </c>
       <c r="C16" s="16">
-        <v>4564.7201999999988</v>
+        <v>4564.7</v>
       </c>
       <c r="D16" s="16">
-        <v>8741.9070000000029</v>
+        <v>8741.9</v>
       </c>
       <c r="E16" s="16">
-        <v>4976.2332999999999</v>
+        <v>4976.2</v>
       </c>
       <c r="F16" s="17">
-        <v>18746.344100000002</v>
+        <v>18746.3</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -947,19 +954,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="16">
-        <v>-308.13290000000006</v>
+        <v>-308.10000000000002</v>
       </c>
       <c r="C17" s="16">
-        <v>7667.6233999999977</v>
+        <v>7667.6</v>
       </c>
       <c r="D17" s="16">
-        <v>10541.606199999997</v>
+        <v>10541.6</v>
       </c>
       <c r="E17" s="16">
-        <v>1738.2291999999998</v>
+        <v>1877.6</v>
       </c>
       <c r="F17" s="17">
-        <v>19639.325899999996</v>
+        <v>19778.7</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -973,19 +980,23 @@
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="15" t="s">
-        <v>14</v>
+      <c r="A18" s="15">
+        <v>2022</v>
       </c>
       <c r="B18" s="16">
-        <v>588.99710000000039</v>
+        <v>154.9</v>
       </c>
       <c r="C18" s="16">
-        <v>9295.5676999999941</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+        <v>8685.7000000000007</v>
+      </c>
+      <c r="D18" s="16">
+        <v>12343.2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>14289.2</v>
+      </c>
       <c r="F18" s="17">
-        <v>9884.5647999999946</v>
+        <v>35473</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -999,14 +1010,24 @@
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1607.1</v>
+      </c>
+      <c r="C19" s="23">
+        <v>14988.3</v>
+      </c>
+      <c r="D19" s="25">
+        <v>8793.4</v>
+      </c>
+      <c r="E19" s="26">
+        <v>10187.700000000001</v>
+      </c>
+      <c r="F19" s="24">
+        <v>35576.6</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1019,66 +1040,70 @@
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="A20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="16">
+        <v>6185.5</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="24">
+        <v>6185.5</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1098,7 +1123,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1118,7 +1143,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1137,7 +1162,9 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="5"/>
+      <c r="A26" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1154,31 +1181,69 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" ht="50.45" customHeight="1">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" ht="50.45" customHeight="1">
+      <c r="A29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/12/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/12/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -655,14 +655,15 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" customWidth="1"/>
-    <col min="2" max="5" width="12.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="2" max="4" width="12.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1043,14 +1044,16 @@
       <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="23">
         <v>6185.5</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="23">
+        <v>5434.8466999999955</v>
+      </c>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="F20" s="24">
-        <v>6185.5</v>
+        <v>11620.346699999995</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
